--- a/Modules/DCDC_StepDown(LTC3892)_(±12-±18V 8A)/bom.xlsx
+++ b/Modules/DCDC_StepDown(LTC3892)_(±12-±18V 8A)/bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\DCDC_StepDown(LTC3892)_(DualPower [CUK]-12v3A &amp; [BUCK]12v10A )\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\DCDC_StepDown(LTC3892)_(±12-±18V 8A)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D468CF-ADE8-4AEF-A683-BBA39D404509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D020DB-D29B-4186-B5C2-BFA17A14509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="300" windowWidth="16815" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="1455" windowWidth="15495" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
@@ -255,16 +255,10 @@
     <t xml:space="preserve">Q3 </t>
   </si>
   <si>
-    <t>BSC100N06LS3</t>
-  </si>
-  <si>
     <t>SON-8 FET管</t>
   </si>
   <si>
     <t xml:space="preserve">Q1 Q2 </t>
-  </si>
-  <si>
-    <t>BSC028N06LS3</t>
   </si>
   <si>
     <t>0402</t>
@@ -336,6 +330,14 @@
   </si>
   <si>
     <t>15uH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSC028N06LS3（BSC026N06LS3）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSC100N06LS3（BSC117N06LS3）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1356,15 +1358,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="7.375" customWidth="1"/>
     <col min="5" max="5" width="35.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.375" customWidth="1"/>
@@ -1409,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1436,7 +1438,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -1466,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -1493,7 +1495,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -1520,7 +1522,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1547,7 +1549,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -1574,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -1598,10 +1600,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -1625,10 +1627,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -1649,13 +1651,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -1676,13 +1678,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -1703,13 +1705,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -1730,13 +1732,13 @@
         <v>15</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -1757,13 +1759,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1784,10 +1786,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1808,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
@@ -1832,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>33</v>
@@ -1856,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>33</v>
@@ -1880,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>33</v>
@@ -1961,7 +1963,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -1985,7 +1987,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -2009,7 +2011,7 @@
         <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -2033,7 +2035,7 @@
         <v>49</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -2057,7 +2059,7 @@
         <v>51</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F27">
         <v>100</v>
@@ -2081,7 +2083,7 @@
         <v>53</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28">
         <v>100</v>
@@ -2105,7 +2107,7 @@
         <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -2129,7 +2131,7 @@
         <v>57</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -2153,7 +2155,7 @@
         <v>59</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F31">
         <v>100</v>
@@ -2177,7 +2179,7 @@
         <v>61</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32">
         <v>100</v>
@@ -2201,7 +2203,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F33">
         <v>100</v>
@@ -2294,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2312,19 +2314,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>0</v>

--- a/Modules/DCDC_StepDown(LTC3892)_(±12-±18V 8A)/bom.xlsx
+++ b/Modules/DCDC_StepDown(LTC3892)_(±12-±18V 8A)/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\DCDC_StepDown(LTC3892)_(±12-±18V 8A)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D020DB-D29B-4186-B5C2-BFA17A14509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFEF264-ED9B-4A2F-8DDC-67D2CFF1FE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="1455" windowWidth="15495" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,15 +525,6 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -973,33 +964,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1356,47 +1350,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="34.75" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="35.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1404,25 +1398,25 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
         <f>F2*G2</f>
         <v>0</v>
       </c>
@@ -1431,25 +1425,25 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>20</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H38" si="0">F3*G3</f>
         <v>0</v>
       </c>
@@ -1458,25 +1452,25 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>100</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1485,25 +1479,25 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>100</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1512,25 +1506,25 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>100</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1539,25 +1533,25 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>100</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1566,25 +1560,25 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>100</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1593,25 +1587,25 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>50</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1620,25 +1614,25 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>100</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
         <f>F10*G10</f>
         <v>0</v>
       </c>
@@ -1647,25 +1641,25 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>50</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1674,25 +1668,25 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>15</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>50</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1701,25 +1695,25 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>50</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1728,25 +1722,25 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>50</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1755,25 +1749,25 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>50</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1782,22 +1776,22 @@
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>10</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1806,22 +1800,22 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>10</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1830,22 +1824,22 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>10</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
         <f t="shared" ref="H18" si="1">F18*G18</f>
         <v>0</v>
       </c>
@@ -1854,22 +1848,22 @@
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>10</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1878,22 +1872,22 @@
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>10</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1902,7 +1896,7 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -1911,16 +1905,16 @@
       <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>10</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1929,7 +1923,7 @@
       <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -1938,16 +1932,16 @@
       <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>10</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1956,22 +1950,22 @@
       <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>100</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1980,22 +1974,22 @@
       <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>100</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2004,22 +1998,22 @@
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <v>100</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2028,22 +2022,22 @@
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <v>100</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2052,22 +2046,22 @@
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <v>100</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2076,22 +2070,22 @@
       <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <v>100</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2100,22 +2094,22 @@
       <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>100</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2124,22 +2118,22 @@
       <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <v>100</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2148,22 +2142,22 @@
       <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>100</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2172,22 +2166,22 @@
       <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <v>100</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2196,22 +2190,22 @@
       <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="7">
         <v>100</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2220,22 +2214,22 @@
       <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2244,22 +2238,22 @@
       <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="7">
         <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="7">
         <v>2</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2268,22 +2262,22 @@
       <c r="A36" t="s">
         <v>70</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="7">
         <v>5</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2292,22 +2286,22 @@
       <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="7">
         <v>10</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2316,29 +2310,23 @@
       <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="7">
         <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="7">
         <v>10</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="H39" s="5">
-        <f>SUM(H2:H38)</f>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
